--- a/Documentation/User Testing.xlsx
+++ b/Documentation/User Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\3000\Timeline-Takedown\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MHodg\Desktop\Timeline-Takedown\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9877D2-49CB-449E-9951-83F8A2FE501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296ABC26-9BA9-40BE-938C-8A238389CED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Tests</t>
   </si>
@@ -127,13 +127,67 @@
   </si>
   <si>
     <t>Feedback about the Game (if you have any)</t>
+  </si>
+  <si>
+    <t>Boss didn’t spawn :(</t>
+  </si>
+  <si>
+    <t>I liked the buildings that you could go in and explore. The terrain looked really cool as well.</t>
+  </si>
+  <si>
+    <t>No reload animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe have a few more buildings to go inside of and explore. </t>
+  </si>
+  <si>
+    <t>Once you’ve got all the animations nailed down then this is will amazing</t>
+  </si>
+  <si>
+    <t>Maybe add some control instructions and prompts to say about the health packs</t>
+  </si>
+  <si>
+    <t>I want to battle the boss :(</t>
+  </si>
+  <si>
+    <t>RED = MYLES</t>
+  </si>
+  <si>
+    <t>BLACK = HARRY</t>
+  </si>
+  <si>
+    <t>Not that I'm aware of</t>
+  </si>
+  <si>
+    <t>Very easy, most enemies died in one hit</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>7/10, strong theme</t>
+  </si>
+  <si>
+    <t>I liked exploring the pyramids, so yes</t>
+  </si>
+  <si>
+    <t>I saw some random flying objects</t>
+  </si>
+  <si>
+    <t>I'd be interested in seeing other levels, so yes</t>
+  </si>
+  <si>
+    <t>The pyramids didn't have anything I could pick up, maybe add something in them that I can engage with</t>
+  </si>
+  <si>
+    <t>I had no idea there were health packs lmao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +210,13 @@
       <color theme="1"/>
       <name val="Amasis MT Pro Black"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -539,15 +600,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -566,17 +624,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,6 +633,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,6 +688,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,111 +1042,113 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="N7" sqref="N7:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>45705</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="13" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="17" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="15" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="20" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+    </row>
+    <row r="4" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1092,13 +1158,17 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="24"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
@@ -1106,13 +1176,15 @@
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
     </row>
-    <row r="5" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1120,13 +1192,17 @@
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="27"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
@@ -1134,13 +1210,13 @@
       <c r="S5" s="28"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+    <row r="6" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1150,13 +1226,17 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="27"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
@@ -1164,29 +1244,35 @@
       <c r="S6" s="28"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="27"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -1194,20 +1280,20 @@
       <c r="S7" s="28"/>
       <c r="T7" s="29"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="6"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="30"/>
       <c r="O8" s="31"/>
       <c r="P8" s="31"/>
@@ -1216,22 +1302,22 @@
       <c r="S8" s="31"/>
       <c r="T8" s="32"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="33"/>
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
@@ -1240,13 +1326,13 @@
       <c r="S9" s="34"/>
       <c r="T9" s="35"/>
     </row>
-    <row r="10" spans="1:20" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:20" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1256,12 +1342,14 @@
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="36"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
@@ -1270,110 +1358,118 @@
       <c r="S10" s="37"/>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="16" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1383,141 +1479,148 @@
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="N6:T6"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="N8:T9"/>
     <mergeCell ref="N10:T10"/>
@@ -1526,8 +1629,10 @@
     <mergeCell ref="N3:T3"/>
     <mergeCell ref="N4:T4"/>
     <mergeCell ref="N5:T5"/>
+    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>